--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Dll1-Notch1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Dll1-Notch1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Dll1</t>
   </si>
   <si>
     <t>Notch1</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>9.854762333333333</v>
+        <v>16.39002933333333</v>
       </c>
       <c r="H2">
-        <v>29.564287</v>
+        <v>49.170088</v>
       </c>
       <c r="I2">
-        <v>0.4578789100146891</v>
+        <v>0.5551882184054378</v>
       </c>
       <c r="J2">
-        <v>0.4578789100146891</v>
+        <v>0.5551882184054378</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>47.57896333333333</v>
+        <v>70.46291600000001</v>
       </c>
       <c r="N2">
-        <v>142.73689</v>
+        <v>211.388748</v>
       </c>
       <c r="O2">
-        <v>0.4501884529482371</v>
+        <v>0.5276750397950939</v>
       </c>
       <c r="P2">
-        <v>0.450188452948237</v>
+        <v>0.5276750397950939</v>
       </c>
       <c r="Q2">
-        <v>468.879375716381</v>
+        <v>1154.889260152203</v>
       </c>
       <c r="R2">
-        <v>4219.91438144743</v>
+        <v>10394.00334136983</v>
       </c>
       <c r="S2">
-        <v>0.2061317981371379</v>
+        <v>0.2929589652408566</v>
       </c>
       <c r="T2">
-        <v>0.2061317981371379</v>
+        <v>0.2929589652408566</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>9.854762333333333</v>
+        <v>16.39002933333333</v>
       </c>
       <c r="H3">
-        <v>29.564287</v>
+        <v>49.170088</v>
       </c>
       <c r="I3">
-        <v>0.4578789100146891</v>
+        <v>0.5551882184054378</v>
       </c>
       <c r="J3">
-        <v>0.4578789100146891</v>
+        <v>0.5551882184054378</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>29.489171</v>
       </c>
       <c r="O3">
-        <v>0.09300808131111739</v>
+        <v>0.07361176802536967</v>
       </c>
       <c r="P3">
-        <v>0.09300808131111736</v>
+        <v>0.07361176802536967</v>
       </c>
       <c r="Q3">
-        <v>96.86959053734189</v>
+        <v>161.1094592352275</v>
       </c>
       <c r="R3">
-        <v>871.826314836077</v>
+        <v>1449.985133117048</v>
       </c>
       <c r="S3">
-        <v>0.042586438893292</v>
+        <v>0.04086838634367936</v>
       </c>
       <c r="T3">
-        <v>0.04258643889329199</v>
+        <v>0.04086838634367936</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>9.854762333333333</v>
+        <v>16.39002933333333</v>
       </c>
       <c r="H4">
-        <v>29.564287</v>
+        <v>49.170088</v>
       </c>
       <c r="I4">
-        <v>0.4578789100146891</v>
+        <v>0.5551882184054378</v>
       </c>
       <c r="J4">
-        <v>0.4578789100146891</v>
+        <v>0.5551882184054378</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>37.34441866666666</v>
+        <v>42.505498</v>
       </c>
       <c r="N4">
-        <v>112.033256</v>
+        <v>127.516494</v>
       </c>
       <c r="O4">
-        <v>0.3533499868001453</v>
+        <v>0.3183105613832428</v>
       </c>
       <c r="P4">
-        <v>0.3533499868001453</v>
+        <v>0.3183105613832428</v>
       </c>
       <c r="Q4">
-        <v>368.0203704364969</v>
+        <v>696.6663590479413</v>
       </c>
       <c r="R4">
-        <v>3312.183333928472</v>
+        <v>6269.997231431472</v>
       </c>
       <c r="S4">
-        <v>0.1617915068097553</v>
+        <v>0.1767222734739973</v>
       </c>
       <c r="T4">
-        <v>0.1617915068097553</v>
+        <v>0.1767222734739973</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>9.854762333333333</v>
+        <v>16.39002933333333</v>
       </c>
       <c r="H5">
-        <v>29.564287</v>
+        <v>49.170088</v>
       </c>
       <c r="I5">
-        <v>0.4578789100146891</v>
+        <v>0.5551882184054378</v>
       </c>
       <c r="J5">
-        <v>0.4578789100146891</v>
+        <v>0.5551882184054378</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.933664</v>
+        <v>10.73653933333333</v>
       </c>
       <c r="N5">
-        <v>32.80099199999999</v>
+        <v>32.209618</v>
       </c>
       <c r="O5">
-        <v>0.1034534789405002</v>
+        <v>0.08040263079629371</v>
       </c>
       <c r="P5">
-        <v>0.1034534789405002</v>
+        <v>0.08040263079629371</v>
       </c>
       <c r="Q5">
-        <v>107.7486601525226</v>
+        <v>175.9721946118204</v>
       </c>
       <c r="R5">
-        <v>969.7379413727039</v>
+        <v>1583.749751506384</v>
       </c>
       <c r="S5">
-        <v>0.04736916617450384</v>
+        <v>0.04463859334690449</v>
       </c>
       <c r="T5">
-        <v>0.04736916617450383</v>
+        <v>0.04463859334690449</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -785,16 +785,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.2120556666666666</v>
+        <v>0.2120556666666667</v>
       </c>
       <c r="H6">
-        <v>0.6361669999999999</v>
+        <v>0.636167</v>
       </c>
       <c r="I6">
-        <v>0.009852679773651049</v>
+        <v>0.007183074867352934</v>
       </c>
       <c r="J6">
-        <v>0.009852679773651049</v>
+        <v>0.007183074867352935</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>47.57896333333333</v>
+        <v>70.46291600000001</v>
       </c>
       <c r="N6">
-        <v>142.73689</v>
+        <v>211.388748</v>
       </c>
       <c r="O6">
-        <v>0.4501884529482371</v>
+        <v>0.5276750397950939</v>
       </c>
       <c r="P6">
-        <v>0.450188452948237</v>
+        <v>0.5276750397950939</v>
       </c>
       <c r="Q6">
-        <v>10.08938878895889</v>
+        <v>14.94206062765734</v>
       </c>
       <c r="R6">
-        <v>90.80449910062998</v>
+        <v>134.478545648916</v>
       </c>
       <c r="S6">
-        <v>0.004435562664694352</v>
+        <v>0.003790329316481598</v>
       </c>
       <c r="T6">
-        <v>0.004435562664694351</v>
+        <v>0.003790329316481599</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -847,16 +847,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.2120556666666666</v>
+        <v>0.2120556666666667</v>
       </c>
       <c r="H7">
-        <v>0.6361669999999999</v>
+        <v>0.636167</v>
       </c>
       <c r="I7">
-        <v>0.009852679773651049</v>
+        <v>0.007183074867352934</v>
       </c>
       <c r="J7">
-        <v>0.009852679773651049</v>
+        <v>0.007183074867352935</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>29.489171</v>
       </c>
       <c r="O7">
-        <v>0.09300808131111739</v>
+        <v>0.07361176802536967</v>
       </c>
       <c r="P7">
-        <v>0.09300808131111736</v>
+        <v>0.07361176802536967</v>
       </c>
       <c r="Q7">
         <v>2.084448605284111</v>
@@ -883,10 +883,10 @@
         <v>18.760037447557</v>
       </c>
       <c r="S7">
-        <v>0.0009163788415201384</v>
+        <v>0.0005287588408444472</v>
       </c>
       <c r="T7">
-        <v>0.0009163788415201382</v>
+        <v>0.0005287588408444473</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -909,16 +909,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.2120556666666666</v>
+        <v>0.2120556666666667</v>
       </c>
       <c r="H8">
-        <v>0.6361669999999999</v>
+        <v>0.636167</v>
       </c>
       <c r="I8">
-        <v>0.009852679773651049</v>
+        <v>0.007183074867352934</v>
       </c>
       <c r="J8">
-        <v>0.009852679773651049</v>
+        <v>0.007183074867352935</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>37.34441866666666</v>
+        <v>42.505498</v>
       </c>
       <c r="N8">
-        <v>112.033256</v>
+        <v>127.516494</v>
       </c>
       <c r="O8">
-        <v>0.3533499868001453</v>
+        <v>0.3183105613832428</v>
       </c>
       <c r="P8">
-        <v>0.3533499868001453</v>
+        <v>0.3183105613832428</v>
       </c>
       <c r="Q8">
-        <v>7.919095596639109</v>
+        <v>9.013531715388666</v>
       </c>
       <c r="R8">
-        <v>71.27186036975199</v>
+        <v>81.12178543849799</v>
       </c>
       <c r="S8">
-        <v>0.003481444267965657</v>
+        <v>0.002286448593484975</v>
       </c>
       <c r="T8">
-        <v>0.003481444267965657</v>
+        <v>0.002286448593484975</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -971,16 +971,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.2120556666666666</v>
+        <v>0.2120556666666667</v>
       </c>
       <c r="H9">
-        <v>0.6361669999999999</v>
+        <v>0.636167</v>
       </c>
       <c r="I9">
-        <v>0.009852679773651049</v>
+        <v>0.007183074867352934</v>
       </c>
       <c r="J9">
-        <v>0.009852679773651049</v>
+        <v>0.007183074867352935</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>10.933664</v>
+        <v>10.73653933333333</v>
       </c>
       <c r="N9">
-        <v>32.80099199999999</v>
+        <v>32.209618</v>
       </c>
       <c r="O9">
-        <v>0.1034534789405002</v>
+        <v>0.08040263079629371</v>
       </c>
       <c r="P9">
-        <v>0.1034534789405002</v>
+        <v>0.08040263079629371</v>
       </c>
       <c r="Q9">
-        <v>2.318545408629333</v>
+        <v>2.276744006022889</v>
       </c>
       <c r="R9">
-        <v>20.86690867766399</v>
+        <v>20.490696054206</v>
       </c>
       <c r="S9">
-        <v>0.001019293999470902</v>
+        <v>0.0005775381165419144</v>
       </c>
       <c r="T9">
-        <v>0.001019293999470901</v>
+        <v>0.0005775381165419145</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>11.45582066666667</v>
+        <v>12.89091033333333</v>
       </c>
       <c r="H10">
-        <v>34.367462</v>
+        <v>38.672731</v>
       </c>
       <c r="I10">
-        <v>0.53226841021166</v>
+        <v>0.4366606914505164</v>
       </c>
       <c r="J10">
-        <v>0.53226841021166</v>
+        <v>0.4366606914505165</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>47.57896333333333</v>
+        <v>70.46291600000001</v>
       </c>
       <c r="N10">
-        <v>142.73689</v>
+        <v>211.388748</v>
       </c>
       <c r="O10">
-        <v>0.4501884529482371</v>
+        <v>0.5276750397950939</v>
       </c>
       <c r="P10">
-        <v>0.450188452948237</v>
+        <v>0.5276750397950939</v>
       </c>
       <c r="Q10">
-        <v>545.0560714525756</v>
+        <v>908.3311319811987</v>
       </c>
       <c r="R10">
-        <v>4905.50464307318</v>
+        <v>8174.980187830789</v>
       </c>
       <c r="S10">
-        <v>0.2396210921464049</v>
+        <v>0.2304149477381044</v>
       </c>
       <c r="T10">
-        <v>0.2396210921464048</v>
+        <v>0.2304149477381045</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>11.45582066666667</v>
+        <v>12.89091033333333</v>
       </c>
       <c r="H11">
-        <v>34.367462</v>
+        <v>38.672731</v>
       </c>
       <c r="I11">
-        <v>0.53226841021166</v>
+        <v>0.4366606914505164</v>
       </c>
       <c r="J11">
-        <v>0.53226841021166</v>
+        <v>0.4366606914505165</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>29.489171</v>
       </c>
       <c r="O11">
-        <v>0.09300808131111739</v>
+        <v>0.07361176802536967</v>
       </c>
       <c r="P11">
-        <v>0.09300808131111736</v>
+        <v>0.07361176802536967</v>
       </c>
       <c r="Q11">
-        <v>112.6075515282224</v>
+        <v>126.7140863884445</v>
       </c>
       <c r="R11">
-        <v>1013.467963754002</v>
+        <v>1140.426777496001</v>
       </c>
       <c r="S11">
-        <v>0.04950526357630526</v>
+        <v>0.03214336552485293</v>
       </c>
       <c r="T11">
-        <v>0.04950526357630525</v>
+        <v>0.03214336552485295</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,10 +1142,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>11.45582066666667</v>
+        <v>12.89091033333333</v>
       </c>
       <c r="H12">
-        <v>34.367462</v>
+        <v>38.672731</v>
       </c>
       <c r="I12">
-        <v>0.53226841021166</v>
+        <v>0.4366606914505164</v>
       </c>
       <c r="J12">
-        <v>0.53226841021166</v>
+        <v>0.4366606914505165</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>37.34441866666666</v>
+        <v>42.505498</v>
       </c>
       <c r="N12">
-        <v>112.033256</v>
+        <v>127.516494</v>
       </c>
       <c r="O12">
-        <v>0.3533499868001453</v>
+        <v>0.3183105613832428</v>
       </c>
       <c r="P12">
-        <v>0.3533499868001453</v>
+        <v>0.3183105613832428</v>
       </c>
       <c r="Q12">
-        <v>427.8109631462524</v>
+        <v>547.9345633916793</v>
       </c>
       <c r="R12">
-        <v>3850.298668316272</v>
+        <v>4931.411070525113</v>
       </c>
       <c r="S12">
-        <v>0.1880770357224244</v>
+        <v>0.1389937098296088</v>
       </c>
       <c r="T12">
-        <v>0.1880770357224244</v>
+        <v>0.1389937098296089</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>12.89091033333333</v>
+      </c>
+      <c r="H13">
+        <v>38.672731</v>
+      </c>
+      <c r="I13">
+        <v>0.4366606914505164</v>
+      </c>
+      <c r="J13">
+        <v>0.4366606914505165</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>10.73653933333333</v>
+      </c>
+      <c r="N13">
+        <v>32.209618</v>
+      </c>
+      <c r="O13">
+        <v>0.08040263079629371</v>
+      </c>
+      <c r="P13">
+        <v>0.08040263079629371</v>
+      </c>
+      <c r="Q13">
+        <v>138.4037658363064</v>
+      </c>
+      <c r="R13">
+        <v>1245.633892526758</v>
+      </c>
+      <c r="S13">
+        <v>0.0351086683579502</v>
+      </c>
+      <c r="T13">
+        <v>0.03510866835795021</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>11.45582066666667</v>
-      </c>
-      <c r="H13">
-        <v>34.367462</v>
-      </c>
-      <c r="I13">
-        <v>0.53226841021166</v>
-      </c>
-      <c r="J13">
-        <v>0.53226841021166</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>10.933664</v>
-      </c>
-      <c r="N13">
-        <v>32.80099199999999</v>
-      </c>
-      <c r="O13">
-        <v>0.1034534789405002</v>
-      </c>
-      <c r="P13">
-        <v>0.1034534789405002</v>
-      </c>
-      <c r="Q13">
-        <v>125.2540940135893</v>
-      </c>
-      <c r="R13">
-        <v>1127.286846122304</v>
-      </c>
-      <c r="S13">
-        <v>0.05506501876652552</v>
-      </c>
-      <c r="T13">
-        <v>0.0550650187665255</v>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.02857733333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.085732</v>
+      </c>
+      <c r="I14">
+        <v>0.0009680152766929151</v>
+      </c>
+      <c r="J14">
+        <v>0.0009680152766929153</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>70.46291600000001</v>
+      </c>
+      <c r="N14">
+        <v>211.388748</v>
+      </c>
+      <c r="O14">
+        <v>0.5276750397950939</v>
+      </c>
+      <c r="P14">
+        <v>0.5276750397950939</v>
+      </c>
+      <c r="Q14">
+        <v>2.013642238170667</v>
+      </c>
+      <c r="R14">
+        <v>18.122780143536</v>
+      </c>
+      <c r="S14">
+        <v>0.0005107974996511928</v>
+      </c>
+      <c r="T14">
+        <v>0.0005107974996511929</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.02857733333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.085732</v>
+      </c>
+      <c r="I15">
+        <v>0.0009680152766929151</v>
+      </c>
+      <c r="J15">
+        <v>0.0009680152766929153</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>9.829723666666666</v>
+      </c>
+      <c r="N15">
+        <v>29.489171</v>
+      </c>
+      <c r="O15">
+        <v>0.07361176802536967</v>
+      </c>
+      <c r="P15">
+        <v>0.07361176802536967</v>
+      </c>
+      <c r="Q15">
+        <v>0.2809072897968889</v>
+      </c>
+      <c r="R15">
+        <v>2.528165608172</v>
+      </c>
+      <c r="S15">
+        <v>7.125731599293291E-05</v>
+      </c>
+      <c r="T15">
+        <v>7.125731599293292E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.02857733333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.085732</v>
+      </c>
+      <c r="I16">
+        <v>0.0009680152766929151</v>
+      </c>
+      <c r="J16">
+        <v>0.0009680152766929153</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>42.505498</v>
+      </c>
+      <c r="N16">
+        <v>127.516494</v>
+      </c>
+      <c r="O16">
+        <v>0.3183105613832428</v>
+      </c>
+      <c r="P16">
+        <v>0.3183105613832428</v>
+      </c>
+      <c r="Q16">
+        <v>1.214693784845333</v>
+      </c>
+      <c r="R16">
+        <v>10.932244063608</v>
+      </c>
+      <c r="S16">
+        <v>0.0003081294861516769</v>
+      </c>
+      <c r="T16">
+        <v>0.000308129486151677</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.02857733333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.085732</v>
+      </c>
+      <c r="I17">
+        <v>0.0009680152766929151</v>
+      </c>
+      <c r="J17">
+        <v>0.0009680152766929153</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>10.73653933333333</v>
+      </c>
+      <c r="N17">
+        <v>32.209618</v>
+      </c>
+      <c r="O17">
+        <v>0.08040263079629371</v>
+      </c>
+      <c r="P17">
+        <v>0.08040263079629371</v>
+      </c>
+      <c r="Q17">
+        <v>0.3068216633751111</v>
+      </c>
+      <c r="R17">
+        <v>2.761394970376</v>
+      </c>
+      <c r="S17">
+        <v>7.783097489711256E-05</v>
+      </c>
+      <c r="T17">
+        <v>7.783097489711257E-05</v>
       </c>
     </row>
   </sheetData>
